--- a/docs/UKCore-AllergyIntolerance.xlsx
+++ b/docs/UKCore-AllergyIntolerance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="431">
   <si>
     <t>Path</t>
   </si>
@@ -731,13 +731,10 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
+    <t>A code from the SNOMED Clinical Terminology UK with the expression &lt;105590001 |Substance OR &lt;373873005 |Pharmaceutical / biologic product| OR &lt;716186003 |No known allergy| OR 196461000000101 |Transfer-degraded drug allergy| OR 196471000000108 |Transfer-degraded non-drug allergy), or a code from the v3 Code System NullFlavor specifying why a valid value is not present.</t>
+  </si>
+  <si>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyCode</t>
   </si>
   <si>
     <t>substance/product:@@ -759,13 +756,405 @@
     <t>AL1-3 / IAM-3</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding</t>
+    <t>AllergyIntolerance.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient)
+</t>
+  </si>
+  <si>
+    <t>Who the sensitivity is for</t>
+  </si>
+  <si>
+    <t>The patient who has the allergy or intolerance.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>(PID-3)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter when the allergy or intolerance was asserted</t>
+  </si>
+  <si>
+    <t>The encounter when the allergy or intolerance was asserted.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.onset[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+AgePeriodRangestring</t>
+  </si>
+  <si>
+    <t>When allergy or intolerance was identified</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
+  </si>
+  <si>
+    <t>effectiveTime.low</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recordedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date first version of the resource instance was recorded</t>
+  </si>
+  <si>
+    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>IAM-13</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-PractitionerRole|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the sensitivity</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.asserter</t>
+  </si>
+  <si>
+    <t>Source
+Informant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Source of the information about the allergy</t>
+  </si>
+  <si>
+    <t>The source of the information about the allergy that is recorded.</t>
+  </si>
+  <si>
+    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.lastOccurrence</t>
+  </si>
+  <si>
+    <t>Date(/time) of last known occurrence of a reaction</t>
+  </si>
+  <si>
+    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
+  </si>
+  <si>
+    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text not captured in other fields</t>
+  </si>
+  <si>
+    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
+  </si>
+  <si>
+    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Adverse Reaction Events linked to exposure to substance</t>
+  </si>
+  <si>
+    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.substance</t>
+  </si>
+  <si>
+    <t>Specific substance or pharmaceutical product considered to be responsible for event</t>
+  </si>
+  <si>
+    <t>Identification of the specific substance (or pharmaceutical product) considered to be responsible for the Adverse Reaction event. Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
+  </si>
+  <si>
+    <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes defining the type of the substance (including pharmaceutical products).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation</t>
+  </si>
+  <si>
+    <t>Symptoms
+Signs</t>
+  </si>
+  <si>
+    <t>Clinical symptoms/signs associated with the Event</t>
+  </si>
+  <si>
+    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.</t>
+  </si>
+  <si>
+    <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
+  </si>
+  <si>
+    <t>A code from the SNOMED Clinical Terminology UK hierarchy with concept id '404684003' to record an allergy manifestation or a value from the HL7 FHIR nullFlavors code system.</t>
+  </si>
+  <si>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyManifestation</t>
+  </si>
+  <si>
+    <t>AL1-5</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.description</t>
+  </si>
+  <si>
+    <t>Narrative
+Text</t>
+  </si>
+  <si>
+    <t>Description of the event as a whole</t>
+  </si>
+  <si>
+    <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
+  </si>
+  <si>
+    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.onset</t>
+  </si>
+  <si>
+    <t>Date(/time) when manifestations showed</t>
+  </si>
+  <si>
+    <t>Record of the date and/or time of the onset of the Reaction.</t>
+  </si>
+  <si>
+    <t>AL1-6</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.severity</t>
+  </si>
+  <si>
+    <t>mild | moderate | severe (of event as a whole)</t>
+  </si>
+  <si>
+    <t>Clinical assessment of the severity of the reaction event as a whole, potentially considering multiple different manifestations.</t>
+  </si>
+  <si>
+    <t>It is acknowledged that this assessment is very subjective. There may be some specific practice domains where objective scales have been applied. Objective scales can be included in this model as extensions.</t>
+  </si>
+  <si>
+    <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.1</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute</t>
+  </si>
+  <si>
+    <t>How the subject was exposed to the substance</t>
+  </si>
+  <si>
+    <t>Identification of the route by which the subject was exposed to the substance.</t>
+  </si>
+  <si>
+    <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -800,19 +1189,19 @@
     <t>snomedCT</t>
   </si>
   <si>
-    <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;105590001 |Substance OR &lt;373873005 |Pharmaceutical / biologic product| OR &lt;716186003 |No known allergy| OR 196461000000101 |Transfer-degraded drug allergy| OR 196471000000108 |Transfer-degraded non-drug allergy), or a code from the v3 Code System NullFlavor specifying why a valid value is not present.</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyCode</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.system</t>
+    <t>A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration. Any code from the SNOMED CT UK 'NHS e-Prescribing route of administration subset' with subset original id 30201000001137; the corresponding SNOMED CT UK Refset FSN is 'ePrescribing route of administration simple reference set (foundation metadata concept)' with Refset Id 999000051000001100.</t>
+  </si>
+  <si>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyExposureRoute</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -839,7 +1228,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.coding.version</t>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -860,7 +1249,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.coding.code</t>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -881,7 +1270,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.coding.display</t>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -902,7 +1291,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.coding.userSelected</t>
+    <t>AllergyIntolerance.reaction.exposureRoute.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -930,7 +1319,7 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.text</t>
+    <t>AllergyIntolerance.reaction.exposureRoute.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -952,473 +1341,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient)
-</t>
-  </si>
-  <si>
-    <t>Who the sensitivity is for</t>
-  </si>
-  <si>
-    <t>The patient who has the allergy or intolerance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>(PID-3)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter when the allergy or intolerance was asserted</t>
-  </si>
-  <si>
-    <t>The encounter when the allergy or intolerance was asserted.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.onset[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-AgePeriodRangestring</t>
-  </si>
-  <si>
-    <t>When allergy or intolerance was identified</t>
-  </si>
-  <si>
-    <t>Estimated or actual date,  date-time, or age when allergy or intolerance was identified.</t>
-  </si>
-  <si>
-    <t>effectiveTime.low</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date first version of the resource instance was recorded</t>
-  </si>
-  <si>
-    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>IAM-13</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-PractitionerRole|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the sensitivity</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.asserter</t>
-  </si>
-  <si>
-    <t>Source
-Informant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Source of the information about the allergy</t>
-  </si>
-  <si>
-    <t>The source of the information about the allergy that is recorded.</t>
-  </si>
-  <si>
-    <t>The recorder takes responsibility for the content, but can reference the source from where they got it.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>IAM-14 (if patient) / IAM-18 (if practitioner)</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.lastOccurrence</t>
-  </si>
-  <si>
-    <t>Date(/time) of last known occurrence of a reaction</t>
-  </si>
-  <si>
-    <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
-  </si>
-  <si>
-    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional text not captured in other fields</t>
-  </si>
-  <si>
-    <t>Additional narrative about the propensity for the Adverse Reaction, not captured in other fields.</t>
-  </si>
-  <si>
-    <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-RelatedPerson|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note.time</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Adverse Reaction Events linked to exposure to substance</t>
-  </si>
-  <si>
-    <t>Details about each adverse reaction event linked to exposure to the identified substance.</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.substance</t>
-  </si>
-  <si>
-    <t>Specific substance or pharmaceutical product considered to be responsible for event</t>
-  </si>
-  <si>
-    <t>Identification of the specific substance (or pharmaceutical product) considered to be responsible for the Adverse Reaction event. Note: the substance for a specific reaction may be different from the substance identified as the cause of the risk, but it must be consistent with it. For instance, it may be a more specific substance (e.g. a brand medication) or a composite product that includes the identified substance. It must be clinically safe to only process the 'code' and ignore the 'reaction.substance'.  If a receiving system is unable to confirm that AllergyIntolerance.reaction.substance falls within the semantic scope of AllergyIntolerance.code, then the receiving system should ignore AllergyIntolerance.reaction.substance.</t>
-  </si>
-  <si>
-    <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
-  </si>
-  <si>
-    <t>Codes defining the type of the substance (including pharmaceutical products).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].participation[typeCode=CSM].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation</t>
-  </si>
-  <si>
-    <t>Symptoms
-Signs</t>
-  </si>
-  <si>
-    <t>Clinical symptoms/signs associated with the Event</t>
-  </si>
-  <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with the adverse reaction event.</t>
-  </si>
-  <si>
-    <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
-  </si>
-  <si>
-    <t>Clinical symptoms and/or signs that are observed or associated with an Adverse Reaction Event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
-  </si>
-  <si>
-    <t>AL1-5</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding</t>
-  </si>
-  <si>
-    <t>A code from the SNOMED Clinical Terminology UK hierarchy with concept id '404684003' to record an allergy manifestation or a value from the HL7 FHIR nullFlavors code system.</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyManifestation</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.system</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.code</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.display</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.manifestation.text</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.description</t>
-  </si>
-  <si>
-    <t>Narrative
-Text</t>
-  </si>
-  <si>
-    <t>Description of the event as a whole</t>
-  </si>
-  <si>
-    <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
-  </si>
-  <si>
-    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.onset</t>
-  </si>
-  <si>
-    <t>Date(/time) when manifestations showed</t>
-  </si>
-  <si>
-    <t>Record of the date and/or time of the onset of the Reaction.</t>
-  </si>
-  <si>
-    <t>AL1-6</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.severity</t>
-  </si>
-  <si>
-    <t>mild | moderate | severe (of event as a whole)</t>
-  </si>
-  <si>
-    <t>Clinical assessment of the severity of the reaction event as a whole, potentially considering multiple different manifestations.</t>
-  </si>
-  <si>
-    <t>It is acknowledged that this assessment is very subjective. There may be some specific practice domains where objective scales have been applied. Objective scales can be included in this model as extensions.</t>
-  </si>
-  <si>
-    <t>Clinical assessment of the severity of a reaction event as a whole, potentially considering multiple different manifestations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reaction-event-severity|4.0.1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute</t>
-  </si>
-  <si>
-    <t>How the subject was exposed to the substance</t>
-  </si>
-  <si>
-    <t>Identification of the route by which the subject was exposed to the substance.</t>
-  </si>
-  <si>
-    <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding</t>
-  </si>
-  <si>
-    <t>A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration. Any code from the SNOMED CT UK 'NHS e-Prescribing route of administration subset' with subset original id 30201000001137; the corresponding SNOMED CT UK Refset FSN is 'ePrescribing route of administration simple reference set (foundation metadata concept)' with Refset Id 999000051000001100.</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-AllergyExposureRoute</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.system</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.version</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.code</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.display</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.coding.userSelected</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.reaction.exposureRoute.text</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.note</t>
@@ -1594,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4307,13 +4229,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4346,26 +4268,26 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
@@ -4377,16 +4299,16 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4437,10 +4359,10 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>49</v>
@@ -4449,32 +4371,32 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4486,17 +4408,15 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4533,37 +4453,37 @@
         <v>42</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4571,7 +4491,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4582,7 +4502,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4591,23 +4511,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4643,23 +4559,25 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
@@ -4668,22 +4586,20 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4692,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4701,23 +4617,19 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4741,13 +4653,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4765,13 +4677,13 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4780,22 +4692,22 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4814,13 +4726,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4871,7 +4783,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4883,13 +4795,13 @@
         <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4897,18 +4809,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4917,19 +4829,19 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4967,45 +4879,45 @@
         <v>42</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5013,7 +4925,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
@@ -5025,29 +4937,27 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>42</v>
@@ -5089,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5104,18 +5014,18 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5126,7 +5036,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5135,19 +5045,19 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5197,13 +5107,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -5212,18 +5122,18 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5231,7 +5141,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
@@ -5243,21 +5153,19 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5305,7 +5213,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5317,32 +5225,32 @@
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5351,21 +5259,21 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5401,45 +5309,45 @@
         <v>42</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5462,20 +5370,18 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5523,7 +5429,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5538,18 +5444,18 @@
         <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5572,20 +5478,16 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5633,7 +5535,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5648,22 +5550,22 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5682,13 +5584,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5739,7 +5641,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>49</v>
@@ -5754,18 +5656,18 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5776,7 +5678,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5788,13 +5690,13 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5845,13 +5747,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5860,10 +5762,10 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5894,13 +5796,13 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5951,7 +5853,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5963,13 +5865,13 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5977,18 +5879,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -6000,15 +5902,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6057,65 +5961,69 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>318</v>
+        <v>125</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>322</v>
+        <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6163,25 +6071,25 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>330</v>
+        <v>92</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6189,11 +6097,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6209,19 +6117,19 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6247,13 +6155,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6271,7 +6179,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6286,29 +6194,29 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6320,16 +6228,16 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6355,13 +6263,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6379,13 +6287,13 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
@@ -6394,29 +6302,29 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>345</v>
+        <v>201</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6428,16 +6336,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6487,13 +6395,13 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
@@ -6502,7 +6410,7 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
@@ -6513,7 +6421,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6536,13 +6444,13 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6593,7 +6501,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6605,32 +6513,32 @@
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6642,16 +6550,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6677,46 +6585,46 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
@@ -6727,7 +6635,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6747,19 +6655,19 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6785,13 +6693,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6809,7 +6717,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6824,18 +6732,18 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6855,16 +6763,16 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>319</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6915,7 +6823,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6927,32 +6835,32 @@
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6961,18 +6869,20 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7009,45 +6919,45 @@
         <v>42</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7067,19 +6977,23 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7115,19 +7029,17 @@
         <v>42</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7142,20 +7054,22 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7164,7 +7078,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7173,19 +7087,23 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>116</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7209,13 +7127,13 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>372</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -7233,44 +7151,44 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>42</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7282,17 +7200,15 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7341,19 +7257,19 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>119</v>
@@ -7367,11 +7283,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7384,26 +7300,24 @@
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>121</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7439,19 +7353,19 @@
         <v>42</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7466,7 +7380,7 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7477,7 +7391,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7485,7 +7399,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>49</v>
@@ -7497,27 +7411,29 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7535,13 +7451,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7559,7 +7475,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7574,29 +7490,29 @@
         <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>392</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7605,19 +7521,19 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7643,13 +7559,13 @@
         <v>42</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>42</v>
@@ -7667,13 +7583,13 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
@@ -7682,18 +7598,18 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7701,7 +7617,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>49</v>
@@ -7713,19 +7629,21 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>117</v>
+        <v>393</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7773,7 +7691,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>118</v>
+        <v>395</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7785,32 +7703,32 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>42</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7819,21 +7737,21 @@
         <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7869,45 +7787,45 @@
         <v>42</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7918,7 +7836,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7930,19 +7848,19 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>240</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7979,23 +7897,25 @@
         <v>42</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AB59" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>243</v>
+        <v>411</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
@@ -8004,22 +7924,20 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>245</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>42</v>
       </c>
@@ -8028,7 +7946,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -8040,19 +7958,19 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>238</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8077,13 +7995,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>403</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -8101,13 +8019,13 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
@@ -8116,18 +8034,18 @@
         <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>245</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8138,7 +8056,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -8150,15 +8068,17 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>116</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8207,22 +8127,22 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>118</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
@@ -8233,18 +8153,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8256,17 +8176,15 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8303,31 +8221,31 @@
         <v>42</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>119</v>
@@ -8341,18 +8259,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8361,29 +8279,27 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>42</v>
@@ -8413,45 +8329,45 @@
         <v>42</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8474,16 +8390,16 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8533,7 +8449,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8548,18 +8464,18 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>266</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8567,7 +8483,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>49</v>
@@ -8582,18 +8498,16 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8641,7 +8555,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8656,18 +8570,18 @@
         <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>273</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8690,18 +8604,16 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8749,10 +8661,10 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>49</v>
@@ -8764,2611 +8676,17 @@
         <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AB75" s="2"/>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL90" t="s" s="2">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL90">
+  <autoFilter ref="A1:AL66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11378,7 +8696,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
